--- a/Report/HD.xlsx
+++ b/Report/HD.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
